--- a/data/05_input/zm.rn19f.xlsx
+++ b/data/05_input/zm.rn19f.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/8B511DCD-9615-47E1-9C3A-C12A77C1862C/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A972584E-39DD-4200-A288-F42C84DB3407/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C682D-D194-E148-AD59-276A24795A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23903ECB-1FE2-E54A-857B-BBA604D10680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="9560" yWindow="1120" windowWidth="13900" windowHeight="16640" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="168">
   <si>
     <t>SampleID</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>/home/springer/sna/te_expression/submergence/reads/pair2rootRecoveryTotalGTAGAG.fastq.gz</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="H2:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,8 +937,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -960,8 +963,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>167</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -986,8 +989,8 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>167</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -1012,8 +1015,8 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>167</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -1038,8 +1041,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>167</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -1064,8 +1067,8 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>167</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -1090,8 +1093,8 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>167</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -1116,8 +1119,8 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>167</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -1142,8 +1145,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>167</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -1168,8 +1171,8 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>167</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -1194,8 +1197,8 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>167</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -1220,8 +1223,8 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>167</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -1246,8 +1249,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>167</v>
       </c>
       <c r="H14" t="s">
         <v>52</v>
@@ -1272,8 +1275,8 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>167</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
@@ -1298,8 +1301,8 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>167</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1324,8 +1327,8 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>167</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -1350,8 +1353,8 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>167</v>
       </c>
       <c r="H18" t="s">
         <v>65</v>
@@ -1376,8 +1379,8 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>167</v>
       </c>
       <c r="H19" t="s">
         <v>68</v>
@@ -1402,8 +1405,8 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>167</v>
       </c>
       <c r="H20" t="s">
         <v>71</v>
@@ -1428,8 +1431,8 @@
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>167</v>
       </c>
       <c r="H21" t="s">
         <v>74</v>
@@ -1454,8 +1457,8 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>167</v>
       </c>
       <c r="H22" t="s">
         <v>78</v>
@@ -1480,8 +1483,8 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>167</v>
       </c>
       <c r="H23" t="s">
         <v>81</v>
@@ -1506,8 +1509,8 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>167</v>
       </c>
       <c r="H24" t="s">
         <v>84</v>
@@ -1532,8 +1535,8 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>167</v>
       </c>
       <c r="H25" t="s">
         <v>87</v>
@@ -1558,8 +1561,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>167</v>
       </c>
       <c r="H26" t="s">
         <v>92</v>
@@ -1584,8 +1587,8 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>167</v>
       </c>
       <c r="H27" t="s">
         <v>95</v>
@@ -1610,8 +1613,8 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>167</v>
       </c>
       <c r="H28" t="s">
         <v>99</v>
@@ -1636,8 +1639,8 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>167</v>
       </c>
       <c r="H29" t="s">
         <v>102</v>
@@ -1662,8 +1665,8 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>167</v>
       </c>
       <c r="H30" t="s">
         <v>106</v>
@@ -1688,8 +1691,8 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>167</v>
       </c>
       <c r="H31" t="s">
         <v>109</v>
@@ -1714,8 +1717,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>167</v>
       </c>
       <c r="H32" t="s">
         <v>113</v>
@@ -1740,8 +1743,8 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>167</v>
       </c>
       <c r="H33" t="s">
         <v>116</v>
@@ -1766,8 +1769,8 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>167</v>
       </c>
       <c r="H34" t="s">
         <v>119</v>
@@ -1792,8 +1795,8 @@
       <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>167</v>
       </c>
       <c r="H35" t="s">
         <v>122</v>
@@ -1818,8 +1821,8 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>167</v>
       </c>
       <c r="H36" t="s">
         <v>125</v>
@@ -1844,8 +1847,8 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="F37" t="s">
+        <v>167</v>
       </c>
       <c r="H37" t="s">
         <v>128</v>
@@ -1870,8 +1873,8 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="F38" t="s">
+        <v>167</v>
       </c>
       <c r="H38" t="s">
         <v>132</v>
@@ -1896,8 +1899,8 @@
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>167</v>
       </c>
       <c r="H39" t="s">
         <v>135</v>
@@ -1922,8 +1925,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>167</v>
       </c>
       <c r="H40" t="s">
         <v>138</v>
@@ -1948,8 +1951,8 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>167</v>
       </c>
       <c r="H41" t="s">
         <v>141</v>
@@ -1974,8 +1977,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>167</v>
       </c>
       <c r="H42" t="s">
         <v>144</v>
@@ -2000,8 +2003,8 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>167</v>
       </c>
       <c r="H43" t="s">
         <v>147</v>
@@ -2026,8 +2029,8 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>167</v>
       </c>
       <c r="H44" t="s">
         <v>150</v>
@@ -2052,8 +2055,8 @@
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>167</v>
       </c>
       <c r="H45" t="s">
         <v>153</v>
@@ -2078,8 +2081,8 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>167</v>
       </c>
       <c r="H46" t="s">
         <v>156</v>
@@ -2104,8 +2107,8 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>167</v>
       </c>
       <c r="H47" t="s">
         <v>159</v>
@@ -2130,8 +2133,8 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
+      <c r="F48" t="s">
+        <v>167</v>
       </c>
       <c r="H48" t="s">
         <v>162</v>
@@ -2156,8 +2159,8 @@
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>167</v>
       </c>
       <c r="H49" t="s">
         <v>165</v>
